--- a/src/main/webapp/uploads/excel/register_data.xlsx
+++ b/src/main/webapp/uploads/excel/register_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-Final-2023\Final\sci_mju_lifelonglearning\src\main\webapp\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-Final-2023\Final\sci_mju_lifelonglearning\src\main\webapp\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D89DA2-48DE-4177-9646-DF92EDF3C6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4498DB-67A7-4CE6-8BD0-9F0F9A0DE269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0A814F5B-D40A-4EF3-B5C7-5CEF3C53D69A}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>รายชื่อผู้สมัครในหลักสูตร</t>
   </si>
   <si>
-    <t>คณะวิทยาศาสตร์ หมาวิทยาลัยแม้โจ้</t>
-  </si>
-  <si>
     <t>หลักสูตร *************</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>สัปดาห์</t>
+  </si>
+  <si>
+    <t>คณะวิทยาศาสตร์ มหาวิทยาลัยแม้โจ้</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A2:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C3" sqref="C3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -709,7 +709,7 @@
     <row r="3" spans="1:23" ht="58.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="C3" s="13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -760,7 +760,7 @@
     </row>
     <row r="5" spans="1:23" ht="22.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B5" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -787,25 +787,25 @@
     <row r="6" spans="1:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="H7" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>9</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
